--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ceacam1-Havcr2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.394923</v>
+        <v>35.89203699999999</v>
       </c>
       <c r="H2">
-        <v>145.184769</v>
+        <v>107.676111</v>
       </c>
       <c r="I2">
-        <v>0.9646625188736886</v>
+        <v>0.9301196142645664</v>
       </c>
       <c r="J2">
-        <v>0.9646625188736887</v>
+        <v>0.9301196142645662</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.249895333333333</v>
+        <v>0.011481</v>
       </c>
       <c r="N2">
-        <v>15.749686</v>
+        <v>0.034443</v>
       </c>
       <c r="O2">
-        <v>0.9621222334998093</v>
+        <v>0.0845733396193058</v>
       </c>
       <c r="P2">
-        <v>0.9621222334998093</v>
+        <v>0.08457333961930581</v>
       </c>
       <c r="Q2">
-        <v>254.068280414726</v>
+        <v>0.4120764767969999</v>
       </c>
       <c r="R2">
-        <v>2286.614523732534</v>
+        <v>3.708688291173</v>
       </c>
       <c r="S2">
-        <v>0.9281232572323052</v>
+        <v>0.07866332202377488</v>
       </c>
       <c r="T2">
-        <v>0.9281232572323053</v>
+        <v>0.07866332202377488</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.394923</v>
+        <v>35.89203699999999</v>
       </c>
       <c r="H3">
-        <v>145.184769</v>
+        <v>107.676111</v>
       </c>
       <c r="I3">
-        <v>0.9646625188736886</v>
+        <v>0.9301196142645664</v>
       </c>
       <c r="J3">
-        <v>0.9646625188736887</v>
+        <v>0.9301196142645662</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.271095</v>
       </c>
       <c r="O3">
-        <v>0.01656074456916987</v>
+        <v>0.6656623843479286</v>
       </c>
       <c r="P3">
-        <v>0.01656074456916987</v>
+        <v>0.6656623843479286</v>
       </c>
       <c r="Q3">
-        <v>4.373207216895</v>
+        <v>3.243383923504999</v>
       </c>
       <c r="R3">
-        <v>39.35886495205499</v>
+        <v>29.19045531154499</v>
       </c>
       <c r="S3">
-        <v>0.01597552957051917</v>
+        <v>0.6191456401601269</v>
       </c>
       <c r="T3">
-        <v>0.01597552957051917</v>
+        <v>0.6191456401601267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.394923</v>
+        <v>35.89203699999999</v>
       </c>
       <c r="H4">
-        <v>145.184769</v>
+        <v>107.676111</v>
       </c>
       <c r="I4">
-        <v>0.9646625188736886</v>
+        <v>0.9301196142645664</v>
       </c>
       <c r="J4">
-        <v>0.9646625188736887</v>
+        <v>0.9301196142645662</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.116318</v>
+        <v>0.033906</v>
       </c>
       <c r="N4">
-        <v>0.348954</v>
+        <v>0.101718</v>
       </c>
       <c r="O4">
-        <v>0.02131702193102087</v>
+        <v>0.2497642760327657</v>
       </c>
       <c r="P4">
-        <v>0.02131702193102088</v>
+        <v>0.2497642760327657</v>
       </c>
       <c r="Q4">
-        <v>5.629200653513999</v>
+        <v>1.216955406522</v>
       </c>
       <c r="R4">
-        <v>50.66280588162599</v>
+        <v>10.952598658698</v>
       </c>
       <c r="S4">
-        <v>0.02056373207086426</v>
+        <v>0.2323106520806647</v>
       </c>
       <c r="T4">
-        <v>0.02056373207086426</v>
+        <v>0.2323106520806646</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.786507</v>
       </c>
       <c r="I5">
-        <v>0.01851460645626791</v>
+        <v>0.02407019339680195</v>
       </c>
       <c r="J5">
-        <v>0.01851460645626791</v>
+        <v>0.02407019339680195</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.249895333333333</v>
+        <v>0.011481</v>
       </c>
       <c r="N5">
-        <v>15.749686</v>
+        <v>0.034443</v>
       </c>
       <c r="O5">
-        <v>0.9621222334998093</v>
+        <v>0.0845733396193058</v>
       </c>
       <c r="P5">
-        <v>0.9621222334998093</v>
+        <v>0.08457333961930581</v>
       </c>
       <c r="Q5">
-        <v>4.876290031866888</v>
+        <v>0.010663962289</v>
       </c>
       <c r="R5">
-        <v>43.886610286802</v>
+        <v>0.095975660601</v>
       </c>
       <c r="S5">
-        <v>0.01781331451607447</v>
+        <v>0.002035696640850103</v>
       </c>
       <c r="T5">
-        <v>0.01781331451607447</v>
+        <v>0.002035696640850103</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.786507</v>
       </c>
       <c r="I6">
-        <v>0.01851460645626791</v>
+        <v>0.02407019339680195</v>
       </c>
       <c r="J6">
-        <v>0.01851460645626791</v>
+        <v>0.02407019339680195</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.271095</v>
       </c>
       <c r="O6">
-        <v>0.01656074456916987</v>
+        <v>0.6656623843479286</v>
       </c>
       <c r="P6">
-        <v>0.01656074456916987</v>
+        <v>0.6656623843479286</v>
       </c>
       <c r="Q6">
         <v>0.08393423501833332</v>
@@ -818,10 +818,10 @@
         <v>0.7554081151649998</v>
       </c>
       <c r="S6">
-        <v>0.0003066156683209563</v>
+        <v>0.01602262232823095</v>
       </c>
       <c r="T6">
-        <v>0.0003066156683209563</v>
+        <v>0.01602262232823095</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>2.786507</v>
       </c>
       <c r="I7">
-        <v>0.01851460645626791</v>
+        <v>0.02407019339680195</v>
       </c>
       <c r="J7">
-        <v>0.01851460645626791</v>
+        <v>0.02407019339680195</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.116318</v>
+        <v>0.033906</v>
       </c>
       <c r="N7">
-        <v>0.348954</v>
+        <v>0.101718</v>
       </c>
       <c r="O7">
-        <v>0.02131702193102087</v>
+        <v>0.2497642760327657</v>
       </c>
       <c r="P7">
-        <v>0.02131702193102088</v>
+        <v>0.2497642760327657</v>
       </c>
       <c r="Q7">
-        <v>0.1080403070753333</v>
+        <v>0.031493102114</v>
       </c>
       <c r="R7">
-        <v>0.9723627636779999</v>
+        <v>0.283437919026</v>
       </c>
       <c r="S7">
-        <v>0.0003946762718724837</v>
+        <v>0.006011874427720896</v>
       </c>
       <c r="T7">
-        <v>0.0003946762718724838</v>
+        <v>0.006011874427720896</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8439653333333333</v>
+        <v>1.767752333333333</v>
       </c>
       <c r="H8">
-        <v>2.531896</v>
+        <v>5.303257</v>
       </c>
       <c r="I8">
-        <v>0.0168228746700435</v>
+        <v>0.04581019233863175</v>
       </c>
       <c r="J8">
-        <v>0.0168228746700435</v>
+        <v>0.04581019233863175</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>5.249895333333333</v>
+        <v>0.011481</v>
       </c>
       <c r="N8">
-        <v>15.749686</v>
+        <v>0.034443</v>
       </c>
       <c r="O8">
-        <v>0.9621222334998093</v>
+        <v>0.0845733396193058</v>
       </c>
       <c r="P8">
-        <v>0.9621222334998093</v>
+        <v>0.08457333961930581</v>
       </c>
       <c r="Q8">
-        <v>4.430729664961778</v>
+        <v>0.020295564539</v>
       </c>
       <c r="R8">
-        <v>39.876566984656</v>
+        <v>0.182660080851</v>
       </c>
       <c r="S8">
-        <v>0.01618566175142962</v>
+        <v>0.003874320954680824</v>
       </c>
       <c r="T8">
-        <v>0.01618566175142962</v>
+        <v>0.003874320954680824</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8439653333333333</v>
+        <v>1.767752333333333</v>
       </c>
       <c r="H9">
-        <v>2.531896</v>
+        <v>5.303257</v>
       </c>
       <c r="I9">
-        <v>0.0168228746700435</v>
+        <v>0.04581019233863175</v>
       </c>
       <c r="J9">
-        <v>0.0168228746700435</v>
+        <v>0.04581019233863175</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.271095</v>
       </c>
       <c r="O9">
-        <v>0.01656074456916987</v>
+        <v>0.6656623843479286</v>
       </c>
       <c r="P9">
-        <v>0.01656074456916987</v>
+        <v>0.6656623843479286</v>
       </c>
       <c r="Q9">
-        <v>0.07626492734666665</v>
+        <v>0.1597429396016666</v>
       </c>
       <c r="R9">
-        <v>0.68638434612</v>
+        <v>1.437686456415</v>
       </c>
       <c r="S9">
-        <v>0.0002785993303297483</v>
+        <v>0.03049412185957082</v>
       </c>
       <c r="T9">
-        <v>0.0002785993303297483</v>
+        <v>0.03049412185957082</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8439653333333333</v>
+        <v>1.767752333333333</v>
       </c>
       <c r="H10">
-        <v>2.531896</v>
+        <v>5.303257</v>
       </c>
       <c r="I10">
-        <v>0.0168228746700435</v>
+        <v>0.04581019233863175</v>
       </c>
       <c r="J10">
-        <v>0.0168228746700435</v>
+        <v>0.04581019233863175</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.116318</v>
+        <v>0.033906</v>
       </c>
       <c r="N10">
-        <v>0.348954</v>
+        <v>0.101718</v>
       </c>
       <c r="O10">
-        <v>0.02131702193102087</v>
+        <v>0.2497642760327657</v>
       </c>
       <c r="P10">
-        <v>0.02131702193102088</v>
+        <v>0.2497642760327657</v>
       </c>
       <c r="Q10">
-        <v>0.09816835964266667</v>
+        <v>0.059937410614</v>
       </c>
       <c r="R10">
-        <v>0.883515236784</v>
+        <v>0.539436695526</v>
       </c>
       <c r="S10">
-        <v>0.0003586135882841328</v>
+        <v>0.01144174952438011</v>
       </c>
       <c r="T10">
-        <v>0.0003586135882841329</v>
+        <v>0.01144174952438011</v>
       </c>
     </row>
   </sheetData>
